--- a/data/tabla 03-17.xlsx
+++ b/data/tabla 03-17.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="bh" sheetId="1" r:id="rId2"/>
+    <sheet name="cv" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>2010</t>
   </si>
@@ -56,6 +57,39 @@
   <si>
     <t>gran grupo de ocupación (CIUO 88 - 1 dígito)</t>
   </si>
+  <si>
+    <t>Miembros del poder ejecutivo y de los cuerpos legislativos</t>
+  </si>
+  <si>
+    <t>Profesionales, científicos e intelectuales</t>
+  </si>
+  <si>
+    <t>Técnicos profesionales de nivel medio</t>
+  </si>
+  <si>
+    <t>Empleados de oficina</t>
+  </si>
+  <si>
+    <t>Trabajadores de los servicios y vendedores de comercio</t>
+  </si>
+  <si>
+    <t>Agricultores y trabajadores calificados agropecuarios y pesqueros</t>
+  </si>
+  <si>
+    <t>Oficiales, operarios y artesanos de artes mecánicas y otros</t>
+  </si>
+  <si>
+    <t>Operadores de instalaciones y máquinas y montadores</t>
+  </si>
+  <si>
+    <t>Trabajadores no calificados</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Gran grupo de ocupación (CIUO 88 - 1 dígito)</t>
+  </si>
 </sst>
 </file>
 
@@ -64,10 +98,2158 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="538">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="1075">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2218,7 +4400,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="116">
+  <fills count="230">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2795,8 +4977,578 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="430">
+  <borders count="859">
     <border>
       <left/>
       <right/>
@@ -6137,11 +8889,3356 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="859">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -7856,6 +13953,1722 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="537" fillId="115" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="550" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="551" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="552" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="553" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="554" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="555" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="556" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="557" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="558" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="559" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="560" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="561" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="562" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="563" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="564" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="565" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="566" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="567" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="568" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="569" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="570" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="571" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="572" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="573" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="574" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="575" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="576" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="577" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="578" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="579" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="580" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="581" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="582" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="585" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="586" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="587" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="588" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="589" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="590" fillId="0" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="591" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="592" fillId="0" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="593" fillId="0" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="594" fillId="0" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="595" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="596" fillId="0" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="597" fillId="0" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="598" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="599" fillId="0" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="600" fillId="0" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="601" fillId="0" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="602" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="603" fillId="0" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="604" fillId="0" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="605" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="606" fillId="0" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="614" fillId="0" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="616" fillId="0" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="618" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="620" fillId="0" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="622" fillId="0" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="624" fillId="0" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="626" fillId="0" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="628" fillId="0" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="630" fillId="0" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="632" fillId="0" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="634" fillId="0" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="636" fillId="0" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="638" fillId="0" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="640" fillId="0" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="642" fillId="0" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="644" fillId="0" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="646" fillId="0" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="648" fillId="0" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="650" fillId="0" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="652" fillId="0" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="654" fillId="0" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="656" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="658" fillId="0" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="660" fillId="0" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="662" fillId="0" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="664" fillId="0" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="666" fillId="0" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="668" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="670" fillId="0" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="672" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="674" fillId="0" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="676" fillId="0" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="678" fillId="0" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="116" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="117" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="118" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="682" fillId="119" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="683" fillId="120" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="684" fillId="121" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="685" fillId="122" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="686" fillId="123" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="687" fillId="124" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="688" fillId="125" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="689" fillId="126" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="690" fillId="127" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="691" fillId="128" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="692" fillId="129" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="693" fillId="130" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="694" fillId="131" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="695" fillId="132" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="696" fillId="133" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="697" fillId="134" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="698" fillId="135" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="699" fillId="136" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="700" fillId="137" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="701" fillId="138" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="702" fillId="139" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="703" fillId="140" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="704" fillId="141" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="705" fillId="142" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="706" fillId="143" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="707" fillId="144" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="145" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="709" fillId="146" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="147" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="148" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="712" fillId="149" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="150" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="151" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="152" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="153" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="729" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="730" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="731" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="732" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="733" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="734" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="735" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="736" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="737" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="738" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="739" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="740" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="746" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="748" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="749" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="750" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="751" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="752" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="753" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="754" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="755" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="756" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="757" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="758" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="759" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="760" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="761" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="764" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="765" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="766" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="767" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="768" fillId="0" borderId="624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="769" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="770" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="771" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="772" fillId="0" borderId="628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="773" fillId="0" borderId="629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="774" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="775" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="776" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="777" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="778" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="779" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="780" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="781" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="782" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="783" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="784" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="785" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="793" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="795" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="797" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="799" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="801" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="803" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="805" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="807" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="809" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="811" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="813" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="815" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="817" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="819" fillId="0" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="821" fillId="0" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="823" fillId="0" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="825" fillId="0" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="827" fillId="0" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="829" fillId="0" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="831" fillId="0" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="833" fillId="0" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="835" fillId="0" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="837" fillId="0" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="839" fillId="0" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="841" fillId="0" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="843" fillId="0" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="845" fillId="0" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="847" fillId="0" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="849" fillId="0" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="851" fillId="0" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="853" fillId="0" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="855" fillId="0" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="857" fillId="0" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="154" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="155" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="156" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="861" fillId="157" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="862" fillId="158" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="863" fillId="159" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="864" fillId="160" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="865" fillId="161" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="866" fillId="162" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="867" fillId="163" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="868" fillId="164" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="869" fillId="165" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="870" fillId="166" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="871" fillId="167" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="872" fillId="168" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="873" fillId="169" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="874" fillId="170" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="875" fillId="171" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="876" fillId="172" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="877" fillId="173" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="878" fillId="174" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="879" fillId="175" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="880" fillId="176" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="881" fillId="177" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="882" fillId="178" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="883" fillId="179" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="884" fillId="180" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="885" fillId="181" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="886" fillId="182" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="887" fillId="183" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="888" fillId="184" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="889" fillId="185" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="890" fillId="186" borderId="710" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="891" fillId="187" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="892" fillId="188" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="893" fillId="189" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="190" borderId="714" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="191" borderId="715" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="716" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="0" borderId="717" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="718" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="719" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="0" borderId="722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="0" borderId="723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="0" borderId="727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="908" fillId="0" borderId="728" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="909" fillId="0" borderId="729" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="910" fillId="0" borderId="730" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="911" fillId="0" borderId="731" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="912" fillId="0" borderId="732" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="913" fillId="0" borderId="733" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="914" fillId="0" borderId="734" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="915" fillId="0" borderId="735" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="916" fillId="0" borderId="736" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="917" fillId="0" borderId="737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="918" fillId="0" borderId="738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="919" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="920" fillId="0" borderId="740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="921" fillId="0" borderId="741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="922" fillId="0" borderId="742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="923" fillId="0" borderId="743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="924" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="925" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="926" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="927" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="928" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="929" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="930" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="931" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="932" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="933" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="934" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="935" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="936" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="937" fillId="0" borderId="757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="938" fillId="0" borderId="758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="939" fillId="0" borderId="759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="940" fillId="0" borderId="760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="0" borderId="761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="0" borderId="762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="943" fillId="0" borderId="763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="944" fillId="0" borderId="764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="945" fillId="0" borderId="765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="946" fillId="0" borderId="766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="947" fillId="0" borderId="767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="948" fillId="0" borderId="768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="949" fillId="0" borderId="769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="950" fillId="0" borderId="770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="951" fillId="0" borderId="771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="952" fillId="0" borderId="772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="953" fillId="0" borderId="773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="954" fillId="0" borderId="774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="955" fillId="0" borderId="775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="956" fillId="0" borderId="776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="957" fillId="0" borderId="777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="958" fillId="0" borderId="778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="959" fillId="0" borderId="779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="960" fillId="0" borderId="780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="961" fillId="0" borderId="781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="962" fillId="0" borderId="782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="963" fillId="0" borderId="783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="964" fillId="0" borderId="784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="0" borderId="785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="0" borderId="786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="972" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="974" fillId="0" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="976" fillId="0" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="978" fillId="0" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="980" fillId="0" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="982" fillId="0" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="984" fillId="0" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="986" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="988" fillId="0" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="990" fillId="0" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="992" fillId="0" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="994" fillId="0" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="996" fillId="0" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="998" fillId="0" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1000" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1002" fillId="0" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1004" fillId="0" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1006" fillId="0" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1008" fillId="0" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1010" fillId="0" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1012" fillId="0" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1014" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1016" fillId="0" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1018" fillId="0" borderId="811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1020" fillId="0" borderId="812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1022" fillId="0" borderId="813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1024" fillId="0" borderId="814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1026" fillId="0" borderId="815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1028" fillId="0" borderId="816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1030" fillId="0" borderId="817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1032" fillId="0" borderId="818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1034" fillId="0" borderId="819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1036" fillId="0" borderId="820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="192" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="193" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="194" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1040" fillId="195" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1041" fillId="196" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1042" fillId="197" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1043" fillId="198" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1044" fillId="199" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1045" fillId="200" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1046" fillId="201" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1047" fillId="202" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1048" fillId="203" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1049" fillId="204" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1050" fillId="205" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1051" fillId="206" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1052" fillId="207" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1053" fillId="208" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1054" fillId="209" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1055" fillId="210" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1056" fillId="211" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1057" fillId="212" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1058" fillId="213" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1059" fillId="214" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1060" fillId="215" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1061" fillId="216" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1062" fillId="217" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1063" fillId="218" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1064" fillId="219" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1065" fillId="220" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1066" fillId="221" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1067" fillId="222" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1068" fillId="223" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1069" fillId="224" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1070" fillId="225" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1071" fillId="226" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1072" fillId="227" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="228" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="229" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7872,134 +15685,134 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="392" t="s">
-        <v>13</v>
+      <c r="A2" s="678" t="s">
+        <v>24</v>
       </c>
-      <c r="B2" s="428" t="s">
+      <c r="B2" s="714" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="429" t="s">
+      <c r="C2" s="715" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="395" t="s">
-        <v>2</v>
+      <c r="A3" s="681" t="s">
+        <v>14</v>
       </c>
-      <c r="B3" s="396">
+      <c r="B3" s="682">
         <v>1310.35498046875</v>
       </c>
-      <c r="C3" s="397">
+      <c r="C3" s="683">
         <v>1852.7093505859375</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="398" t="s">
-        <v>3</v>
+      <c r="A4" s="684" t="s">
+        <v>15</v>
       </c>
-      <c r="B4" s="399">
+      <c r="B4" s="685">
         <v>862.6383056640625</v>
       </c>
-      <c r="C4" s="400">
+      <c r="C4" s="686">
         <v>1157.8138427734375</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="401" t="s">
-        <v>4</v>
+      <c r="A5" s="687" t="s">
+        <v>16</v>
       </c>
-      <c r="B5" s="402">
+      <c r="B5" s="688">
         <v>500.25</v>
       </c>
-      <c r="C5" s="403">
+      <c r="C5" s="689">
         <v>659.544677734375</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="404" t="s">
-        <v>5</v>
+      <c r="A6" s="690" t="s">
+        <v>17</v>
       </c>
-      <c r="B6" s="405">
+      <c r="B6" s="691">
         <v>304.08078002929687</v>
       </c>
-      <c r="C6" s="406">
+      <c r="C6" s="692">
         <v>422.57522583007812</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="407" t="s">
-        <v>6</v>
+      <c r="A7" s="693" t="s">
+        <v>18</v>
       </c>
-      <c r="B7" s="408">
+      <c r="B7" s="694">
         <v>246.46116638183594</v>
       </c>
-      <c r="C7" s="409">
+      <c r="C7" s="695">
         <v>315.90884399414062</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="410" t="s">
-        <v>7</v>
+      <c r="A8" s="696" t="s">
+        <v>19</v>
       </c>
-      <c r="B8" s="411">
+      <c r="B8" s="697">
         <v>196.11640930175781</v>
       </c>
-      <c r="C8" s="412">
+      <c r="C8" s="698">
         <v>280.77102661132812</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="413" t="s">
-        <v>8</v>
+      <c r="A9" s="699" t="s">
+        <v>20</v>
       </c>
-      <c r="B9" s="414">
+      <c r="B9" s="700">
         <v>244.73271179199219</v>
       </c>
-      <c r="C9" s="415">
+      <c r="C9" s="701">
         <v>364.32083129882812</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="416" t="s">
-        <v>9</v>
+      <c r="A10" s="702" t="s">
+        <v>21</v>
       </c>
-      <c r="B10" s="417">
+      <c r="B10" s="703">
         <v>314.2626953125</v>
       </c>
-      <c r="C10" s="418">
+      <c r="C10" s="704">
         <v>452.22335815429687</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="419" t="s">
-        <v>10</v>
+      <c r="A11" s="705" t="s">
+        <v>22</v>
       </c>
-      <c r="B11" s="420">
+      <c r="B11" s="706">
         <v>149.55799865722656</v>
       </c>
-      <c r="C11" s="421">
+      <c r="C11" s="707">
         <v>252.76301574707031</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="422" t="s">
+      <c r="A12" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="423">
+      <c r="B12" s="709">
         <v>632.7698974609375</v>
       </c>
-      <c r="C12" s="424">
+      <c r="C12" s="710">
         <v>888.75067138671875</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="425" t="s">
-        <v>12</v>
+      <c r="A13" s="711" t="s">
+        <v>23</v>
       </c>
-      <c r="B13" s="426">
+      <c r="B13" s="712">
         <v>345.033447265625</v>
       </c>
-      <c r="C13" s="427">
+      <c r="C13" s="713">
         <v>511.87258911132812</v>
       </c>
     </row>
@@ -8010,4 +15823,148 @@
     <mergeCell ref="A2:A2"/>
   </mergeCells>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C13"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="821" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="857"/>
+      <c r="C2" s="858" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="824" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="825">
+        <v>5.5075588226318359</v>
+      </c>
+      <c r="C3" s="826">
+        <v>5.6303625106811523</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="827" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="828">
+        <v>2.7447540760040283</v>
+      </c>
+      <c r="C4" s="829">
+        <v>2.1705467700958252</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="830" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="831">
+        <v>2.5660011768341064</v>
+      </c>
+      <c r="C5" s="832">
+        <v>1.9559981822967529</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="833" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="834">
+        <v>2.1864533424377441</v>
+      </c>
+      <c r="C6" s="835">
+        <v>1.6717462539672852</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="836" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="837">
+        <v>4.5186557769775391</v>
+      </c>
+      <c r="C7" s="838">
+        <v>1.7074514627456665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="839" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="840">
+        <v>7.0837302207946777</v>
+      </c>
+      <c r="C8" s="841">
+        <v>4.5439167022705078</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="842" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="843">
+        <v>2.1634397506713867</v>
+      </c>
+      <c r="C9" s="844">
+        <v>1.698606014251709</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="845" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="846">
+        <v>1.8273389339447021</v>
+      </c>
+      <c r="C10" s="847">
+        <v>2.247873067855835</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="848" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="849">
+        <v>1.2113122940063477</v>
+      </c>
+      <c r="C11" s="850">
+        <v>1.0180164575576782</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="851" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="852">
+        <v>5.0312600135803223</v>
+      </c>
+      <c r="C12" s="853">
+        <v>6.5990767478942871</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="854" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="855">
+        <v>1.5958460569381714</v>
+      </c>
+      <c r="C13" s="856">
+        <v>1.3632916212081909</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A2:A2"/>
+  </mergeCells>
+</worksheet>
 </file>